--- a/data-raw/test_data.xlsx
+++ b/data-raw/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verca\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\biodiva\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8380AC1-DB82-4898-8E46-2C0D61D0C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD924BD-554D-4FF3-98F1-48BFD80DA4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Spec1</t>
   </si>
@@ -235,6 +235,129 @@
   </si>
   <si>
     <t>Sam10</t>
+  </si>
+  <si>
+    <t>Spec61</t>
+  </si>
+  <si>
+    <t>Spec62</t>
+  </si>
+  <si>
+    <t>Spec63</t>
+  </si>
+  <si>
+    <t>Spec64</t>
+  </si>
+  <si>
+    <t>Spec65</t>
+  </si>
+  <si>
+    <t>Spec66</t>
+  </si>
+  <si>
+    <t>Spec67</t>
+  </si>
+  <si>
+    <t>Spec68</t>
+  </si>
+  <si>
+    <t>Spec69</t>
+  </si>
+  <si>
+    <t>Spec70</t>
+  </si>
+  <si>
+    <t>Spec71</t>
+  </si>
+  <si>
+    <t>Spec72</t>
+  </si>
+  <si>
+    <t>Spec73</t>
+  </si>
+  <si>
+    <t>Spec74</t>
+  </si>
+  <si>
+    <t>Spec75</t>
+  </si>
+  <si>
+    <t>Spec76</t>
+  </si>
+  <si>
+    <t>Spec77</t>
+  </si>
+  <si>
+    <t>Spec78</t>
+  </si>
+  <si>
+    <t>Spec79</t>
+  </si>
+  <si>
+    <t>Spec80</t>
+  </si>
+  <si>
+    <t>Spec81</t>
+  </si>
+  <si>
+    <t>Spec82</t>
+  </si>
+  <si>
+    <t>Spec83</t>
+  </si>
+  <si>
+    <t>Spec84</t>
+  </si>
+  <si>
+    <t>Spec85</t>
+  </si>
+  <si>
+    <t>Spec86</t>
+  </si>
+  <si>
+    <t>Spec87</t>
+  </si>
+  <si>
+    <t>Spec88</t>
+  </si>
+  <si>
+    <t>Spec89</t>
+  </si>
+  <si>
+    <t>Spec90</t>
+  </si>
+  <si>
+    <t>Spec91</t>
+  </si>
+  <si>
+    <t>Spec92</t>
+  </si>
+  <si>
+    <t>Spec93</t>
+  </si>
+  <si>
+    <t>Spec94</t>
+  </si>
+  <si>
+    <t>Spec95</t>
+  </si>
+  <si>
+    <t>Spec96</t>
+  </si>
+  <si>
+    <t>Spec97</t>
+  </si>
+  <si>
+    <t>Spec98</t>
+  </si>
+  <si>
+    <t>Spec99</t>
+  </si>
+  <si>
+    <t>Spec100</t>
+  </si>
+  <si>
+    <t>Spec101</t>
   </si>
 </sst>
 </file>
@@ -260,10 +383,10 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="238"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -274,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -463,57 +586,41 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -798,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K102" sqref="A1:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +1003,9 @@
       <c r="J4" s="9">
         <v>4</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -944,7 +1053,9 @@
         <v>18</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -1011,7 +1122,9 @@
       <c r="J9" s="9">
         <v>1</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -1055,7 +1168,9 @@
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -1078,7 +1193,9 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1105,7 +1222,9 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1268,7 +1387,9 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -1285,7 +1406,9 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
@@ -1310,7 +1433,9 @@
         <v>1</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -1334,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1356,7 +1481,9 @@
       <c r="J24" s="9">
         <v>2</v>
       </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -1385,7 +1512,9 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -1412,7 +1541,9 @@
       <c r="J26" s="9">
         <v>3</v>
       </c>
-      <c r="K26" s="10"/>
+      <c r="K26" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1438,7 +1569,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1466,7 +1597,9 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
+      <c r="K28" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
@@ -1495,7 +1628,9 @@
         <v>1</v>
       </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
+      <c r="K29" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -1522,7 +1657,9 @@
         <v>1</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
+      <c r="K30" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -1541,7 +1678,9 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
+      <c r="K31" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
@@ -1561,7 +1700,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1583,7 +1722,9 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
+      <c r="K33" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
@@ -1604,7 +1745,9 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
+      <c r="K34" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -1622,7 +1765,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1642,7 +1785,9 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
+      <c r="K36" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
@@ -1659,7 +1804,9 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
+      <c r="K37" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
@@ -1678,7 +1825,9 @@
         <v>1</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
+      <c r="K38" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
@@ -1696,7 +1845,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1718,7 +1867,9 @@
       <c r="J40" s="9">
         <v>1</v>
       </c>
-      <c r="K40" s="10"/>
+      <c r="K40" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -1736,7 +1887,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -1758,7 +1909,9 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
+      <c r="K42" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -1776,7 +1929,7 @@
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -1795,7 +1948,7 @@
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -1816,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -1839,7 +1992,7 @@
         <v>9</v>
       </c>
       <c r="K46" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -1857,7 +2010,9 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
+      <c r="K47" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
@@ -1877,7 +2032,7 @@
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -1897,7 +2052,9 @@
       <c r="J49" s="9">
         <v>4</v>
       </c>
-      <c r="K49" s="10"/>
+      <c r="K49" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
@@ -1921,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="10">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -1943,7 +2100,9 @@
       <c r="J51" s="9">
         <v>1</v>
       </c>
-      <c r="K51" s="10"/>
+      <c r="K51" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
@@ -1961,7 +2120,7 @@
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -1981,7 +2140,9 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="10"/>
+      <c r="K53" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
@@ -2004,7 +2165,9 @@
         <v>4</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="10"/>
+      <c r="K54" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
@@ -2021,7 +2184,9 @@
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
+      <c r="K55" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -2047,7 +2212,7 @@
         <v>7</v>
       </c>
       <c r="K56" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2067,7 +2232,9 @@
         <v>1</v>
       </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="10"/>
+      <c r="K57" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
@@ -2086,7 +2253,9 @@
       <c r="J58" s="9">
         <v>1</v>
       </c>
-      <c r="K58" s="10"/>
+      <c r="K58" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
@@ -2103,7 +2272,9 @@
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="10"/>
+      <c r="K59" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
@@ -2122,7 +2293,9 @@
       <c r="J60" s="9">
         <v>1</v>
       </c>
-      <c r="K60" s="10"/>
+      <c r="K60" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
@@ -2147,11 +2320,1119 @@
       <c r="J61" s="13">
         <v>9</v>
       </c>
-      <c r="K61" s="14">
-        <v>27</v>
+      <c r="K61" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13">
+        <v>10</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13">
+        <v>6</v>
+      </c>
+      <c r="I62" s="13">
+        <v>11</v>
+      </c>
+      <c r="J62" s="13">
+        <v>9</v>
+      </c>
+      <c r="K62" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13">
+        <v>10</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13">
+        <v>6</v>
+      </c>
+      <c r="I63" s="13">
+        <v>11</v>
+      </c>
+      <c r="J63" s="13">
+        <v>9</v>
+      </c>
+      <c r="K63" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13">
+        <v>10</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13">
+        <v>6</v>
+      </c>
+      <c r="I64" s="13">
+        <v>11</v>
+      </c>
+      <c r="J64" s="13">
+        <v>9</v>
+      </c>
+      <c r="K64" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="13">
+        <v>1</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
+        <v>10</v>
+      </c>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13">
+        <v>6</v>
+      </c>
+      <c r="I65" s="13">
+        <v>11</v>
+      </c>
+      <c r="J65" s="13">
+        <v>9</v>
+      </c>
+      <c r="K65" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="13">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13">
+        <v>10</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13">
+        <v>6</v>
+      </c>
+      <c r="I66" s="13">
+        <v>11</v>
+      </c>
+      <c r="J66" s="13">
+        <v>9</v>
+      </c>
+      <c r="K66" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="13">
+        <v>1</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13">
+        <v>10</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13">
+        <v>6</v>
+      </c>
+      <c r="I67" s="13">
+        <v>11</v>
+      </c>
+      <c r="J67" s="13">
+        <v>9</v>
+      </c>
+      <c r="K67" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13">
+        <v>10</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13">
+        <v>6</v>
+      </c>
+      <c r="I68" s="13">
+        <v>11</v>
+      </c>
+      <c r="J68" s="13">
+        <v>9</v>
+      </c>
+      <c r="K68" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13">
+        <v>10</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13">
+        <v>6</v>
+      </c>
+      <c r="I69" s="13">
+        <v>11</v>
+      </c>
+      <c r="J69" s="13">
+        <v>9</v>
+      </c>
+      <c r="K69" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="13">
+        <v>1</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13">
+        <v>10</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13">
+        <v>6</v>
+      </c>
+      <c r="I70" s="13">
+        <v>11</v>
+      </c>
+      <c r="J70" s="13">
+        <v>9</v>
+      </c>
+      <c r="K70" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13">
+        <v>10</v>
+      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13">
+        <v>6</v>
+      </c>
+      <c r="I71" s="13">
+        <v>11</v>
+      </c>
+      <c r="J71" s="13">
+        <v>9</v>
+      </c>
+      <c r="K71" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13">
+        <v>10</v>
+      </c>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13">
+        <v>6</v>
+      </c>
+      <c r="I72" s="13">
+        <v>11</v>
+      </c>
+      <c r="J72" s="13">
+        <v>9</v>
+      </c>
+      <c r="K72" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13">
+        <v>10</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13">
+        <v>6</v>
+      </c>
+      <c r="I73" s="13">
+        <v>11</v>
+      </c>
+      <c r="J73" s="13">
+        <v>9</v>
+      </c>
+      <c r="K73" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13">
+        <v>1</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13">
+        <v>10</v>
+      </c>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13">
+        <v>6</v>
+      </c>
+      <c r="I74" s="13">
+        <v>11</v>
+      </c>
+      <c r="J74" s="13">
+        <v>9</v>
+      </c>
+      <c r="K74" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13">
+        <v>10</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13">
+        <v>6</v>
+      </c>
+      <c r="I75" s="13">
+        <v>11</v>
+      </c>
+      <c r="J75" s="13">
+        <v>9</v>
+      </c>
+      <c r="K75" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13">
+        <v>10</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13">
+        <v>6</v>
+      </c>
+      <c r="I76" s="13">
+        <v>11</v>
+      </c>
+      <c r="J76" s="13">
+        <v>9</v>
+      </c>
+      <c r="K76" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="13">
+        <v>1</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13">
+        <v>10</v>
+      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13">
+        <v>6</v>
+      </c>
+      <c r="I77" s="13">
+        <v>11</v>
+      </c>
+      <c r="J77" s="13">
+        <v>9</v>
+      </c>
+      <c r="K77" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13">
+        <v>10</v>
+      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13">
+        <v>6</v>
+      </c>
+      <c r="I78" s="13">
+        <v>11</v>
+      </c>
+      <c r="J78" s="13">
+        <v>9</v>
+      </c>
+      <c r="K78" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13">
+        <v>10</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13">
+        <v>6</v>
+      </c>
+      <c r="I79" s="13">
+        <v>11</v>
+      </c>
+      <c r="J79" s="13">
+        <v>9</v>
+      </c>
+      <c r="K79" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13">
+        <v>1</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13">
+        <v>10</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13">
+        <v>6</v>
+      </c>
+      <c r="I80" s="13">
+        <v>11</v>
+      </c>
+      <c r="J80" s="13">
+        <v>9</v>
+      </c>
+      <c r="K80" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13">
+        <v>1</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13">
+        <v>10</v>
+      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13">
+        <v>6</v>
+      </c>
+      <c r="I81" s="13">
+        <v>11</v>
+      </c>
+      <c r="J81" s="13">
+        <v>9</v>
+      </c>
+      <c r="K81" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13">
+        <v>1</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13">
+        <v>10</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13">
+        <v>6</v>
+      </c>
+      <c r="I82" s="13">
+        <v>11</v>
+      </c>
+      <c r="J82" s="13">
+        <v>9</v>
+      </c>
+      <c r="K82" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="13">
+        <v>1</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13">
+        <v>10</v>
+      </c>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13">
+        <v>6</v>
+      </c>
+      <c r="I83" s="13">
+        <v>11</v>
+      </c>
+      <c r="J83" s="13">
+        <v>9</v>
+      </c>
+      <c r="K83" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13">
+        <v>10</v>
+      </c>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13">
+        <v>6</v>
+      </c>
+      <c r="I84" s="13">
+        <v>11</v>
+      </c>
+      <c r="J84" s="13">
+        <v>9</v>
+      </c>
+      <c r="K84" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13">
+        <v>1</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13">
+        <v>10</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13">
+        <v>6</v>
+      </c>
+      <c r="I85" s="13">
+        <v>11</v>
+      </c>
+      <c r="J85" s="13">
+        <v>9</v>
+      </c>
+      <c r="K85" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13">
+        <v>1</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13">
+        <v>10</v>
+      </c>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13">
+        <v>6</v>
+      </c>
+      <c r="I86" s="13">
+        <v>11</v>
+      </c>
+      <c r="J86" s="13">
+        <v>9</v>
+      </c>
+      <c r="K86" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13">
+        <v>1</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13">
+        <v>10</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13">
+        <v>6</v>
+      </c>
+      <c r="I87" s="13">
+        <v>11</v>
+      </c>
+      <c r="J87" s="13">
+        <v>9</v>
+      </c>
+      <c r="K87" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13">
+        <v>1</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13">
+        <v>10</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13">
+        <v>6</v>
+      </c>
+      <c r="I88" s="13">
+        <v>11</v>
+      </c>
+      <c r="J88" s="13">
+        <v>9</v>
+      </c>
+      <c r="K88" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13">
+        <v>1</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13">
+        <v>10</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13">
+        <v>6</v>
+      </c>
+      <c r="I89" s="13">
+        <v>11</v>
+      </c>
+      <c r="J89" s="13">
+        <v>9</v>
+      </c>
+      <c r="K89" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13">
+        <v>1</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13">
+        <v>10</v>
+      </c>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13">
+        <v>6</v>
+      </c>
+      <c r="I90" s="13">
+        <v>11</v>
+      </c>
+      <c r="J90" s="13">
+        <v>9</v>
+      </c>
+      <c r="K90" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13">
+        <v>1</v>
+      </c>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13">
+        <v>10</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13">
+        <v>6</v>
+      </c>
+      <c r="I91" s="13">
+        <v>11</v>
+      </c>
+      <c r="J91" s="13">
+        <v>9</v>
+      </c>
+      <c r="K91" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13">
+        <v>1</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13">
+        <v>10</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13">
+        <v>6</v>
+      </c>
+      <c r="I92" s="13">
+        <v>11</v>
+      </c>
+      <c r="J92" s="13">
+        <v>9</v>
+      </c>
+      <c r="K92" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13">
+        <v>1</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13">
+        <v>10</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13">
+        <v>6</v>
+      </c>
+      <c r="I93" s="13">
+        <v>11</v>
+      </c>
+      <c r="J93" s="13">
+        <v>9</v>
+      </c>
+      <c r="K93" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13">
+        <v>1</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13">
+        <v>10</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13">
+        <v>6</v>
+      </c>
+      <c r="I94" s="13">
+        <v>11</v>
+      </c>
+      <c r="J94" s="13">
+        <v>9</v>
+      </c>
+      <c r="K94" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13">
+        <v>1</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13">
+        <v>10</v>
+      </c>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13">
+        <v>6</v>
+      </c>
+      <c r="I95" s="13">
+        <v>11</v>
+      </c>
+      <c r="J95" s="13">
+        <v>9</v>
+      </c>
+      <c r="K95" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13">
+        <v>1</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13">
+        <v>10</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13">
+        <v>6</v>
+      </c>
+      <c r="I96" s="13">
+        <v>11</v>
+      </c>
+      <c r="J96" s="13">
+        <v>9</v>
+      </c>
+      <c r="K96" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13">
+        <v>1</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13">
+        <v>10</v>
+      </c>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13">
+        <v>6</v>
+      </c>
+      <c r="I97" s="13">
+        <v>11</v>
+      </c>
+      <c r="J97" s="13">
+        <v>9</v>
+      </c>
+      <c r="K97" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13">
+        <v>1</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13">
+        <v>10</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13">
+        <v>6</v>
+      </c>
+      <c r="I98" s="13">
+        <v>11</v>
+      </c>
+      <c r="J98" s="13">
+        <v>9</v>
+      </c>
+      <c r="K98" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13">
+        <v>1</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13">
+        <v>10</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13">
+        <v>6</v>
+      </c>
+      <c r="I99" s="13">
+        <v>11</v>
+      </c>
+      <c r="J99" s="13">
+        <v>9</v>
+      </c>
+      <c r="K99" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13">
+        <v>1</v>
+      </c>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13">
+        <v>10</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13">
+        <v>6</v>
+      </c>
+      <c r="I100" s="13">
+        <v>11</v>
+      </c>
+      <c r="J100" s="13">
+        <v>9</v>
+      </c>
+      <c r="K100" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13">
+        <v>1</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13">
+        <v>10</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13">
+        <v>6</v>
+      </c>
+      <c r="I101" s="13">
+        <v>11</v>
+      </c>
+      <c r="J101" s="13">
+        <v>9</v>
+      </c>
+      <c r="K101" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13">
+        <v>10</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13">
+        <v>6</v>
+      </c>
+      <c r="I102" s="13">
+        <v>11</v>
+      </c>
+      <c r="J102" s="13">
+        <v>9</v>
+      </c>
+      <c r="K102" s="10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/test_data.xlsx
+++ b/data-raw/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\biodiva\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verca\Desktop\biodiva\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD924BD-554D-4FF3-98F1-48BFD80DA4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C221174-C16F-4419-85CB-45D3150B7212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K102" sqref="A1:K102"/>
+      <selection activeCell="E6" sqref="A1:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
